--- a/Lecture/sample_insert_rows.xlsx
+++ b/Lecture/sample_insert_rows.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -454,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -487,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C6" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -498,54 +498,54 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>26</v>
-      </c>
-      <c r="C9" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="B13" t="n">
+        <v>69</v>
+      </c>
+      <c r="C13" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>33</v>
-      </c>
-      <c r="C10" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="B14" t="n">
+        <v>61</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>13</v>
-      </c>
-      <c r="C11" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="B15" t="n">
+        <v>46</v>
+      </c>
+      <c r="C15" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>63</v>
-      </c>
-      <c r="C12" t="n">
-        <v>93</v>
+      <c r="B16" t="n">
+        <v>56</v>
+      </c>
+      <c r="C16" t="n">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
